--- a/季诚/成交客户/创台电子/创台标签.xlsx
+++ b/季诚/成交客户/创台电子/创台标签.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="22488" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="三芯" sheetId="1" r:id="rId1"/>
+    <sheet name="三芯 备品" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Model：</t>
   </si>
@@ -43,19 +44,25 @@
     <t>Power:</t>
   </si>
   <si>
-    <t>9-12W</t>
+    <t>9W</t>
   </si>
   <si>
     <t>QTY：</t>
   </si>
   <si>
-    <t>1003 PCS</t>
+    <t>2000 PCS</t>
   </si>
   <si>
     <t>Remarks：</t>
   </si>
   <si>
     <t>欧司朗三芯黑支架灯珠</t>
+  </si>
+  <si>
+    <t>KW-H3L531（备品）</t>
+  </si>
+  <si>
+    <t>18 PCS</t>
   </si>
 </sst>
 </file>
@@ -63,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -93,6 +100,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,11 +108,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +176,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,15 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,29 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,75 +237,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,60 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -508,15 +461,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,153 +488,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1101,4 +1108,84 @@
   <pageSetup paperSize="260" scale="50" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="29.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="20.4" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.16" right="0.16" top="0.16" bottom="0.04" header="0.08" footer="0.11"/>
+  <pageSetup paperSize="260" scale="50" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/季诚/成交客户/创台电子/创台标签.xlsx
+++ b/季诚/成交客户/创台电子/创台标签.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="三芯" sheetId="1" r:id="rId1"/>
     <sheet name="三芯 备品" sheetId="2" r:id="rId2"/>
+    <sheet name="F5平头黄光" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Model：</t>
   </si>
@@ -62,7 +63,25 @@
     <t>KW-H3L531（备品）</t>
   </si>
   <si>
-    <t>18 PCS</t>
+    <t>6 PCS</t>
+  </si>
+  <si>
+    <t>F5平头短脚黄光</t>
+  </si>
+  <si>
+    <t>WLD(NM)：</t>
+  </si>
+  <si>
+    <t>590-592NM</t>
+  </si>
+  <si>
+    <t>500-1000MCD</t>
+  </si>
+  <si>
+    <t>2.0-2.2V</t>
+  </si>
+  <si>
+    <t>1000PCS</t>
   </si>
 </sst>
 </file>
@@ -70,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -100,21 +119,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -123,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -131,21 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +211,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -167,85 +226,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,31 +279,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,151 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +473,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -461,6 +534,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,216 +570,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1057,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1117,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1188,4 +1207,74 @@
   <pageSetup paperSize="260" scale="50" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="29.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="20.4" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.16" right="0.16" top="0.16" bottom="0.04" header="0.08" footer="0.11"/>
+  <pageSetup paperSize="260" scale="50" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>